--- a/courses/stat5870Eng/stat5870_schedule.xlsx
+++ b/courses/stat5870Eng/stat5870_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niemi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niemi/git/jarad.github.com/courses/stat5870Eng/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D1A2E9-E515-974F-9383-3D17E18D866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61343F8B-9520-224B-B712-A678FA5B05EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{8A1F7CFA-BBEA-B447-866F-31FDA6BC9C43}"/>
   </bookViews>
@@ -197,12 +197,6 @@
     <t>Lab 12</t>
   </si>
   <si>
-    <t>Lab 03a</t>
-  </si>
-  <si>
-    <t>Lab 03b</t>
-  </si>
-  <si>
     <t>Final exam</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>OS 4.3, 4.5</t>
+  </si>
+  <si>
+    <t>Lab 03</t>
+  </si>
+  <si>
+    <t>Lab ??</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -664,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -684,13 +684,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -704,13 +704,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -724,10 +724,10 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -738,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -772,7 +772,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -890,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/courses/stat5870Eng/stat5870_schedule.xlsx
+++ b/courses/stat5870Eng/stat5870_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niemi/git/jarad.github.com/courses/stat5870Eng/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61343F8B-9520-224B-B712-A678FA5B05EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915904C3-3BF7-0B45-A9B4-98C981B0B3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{8A1F7CFA-BBEA-B447-866F-31FDA6BC9C43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Week</t>
   </si>
@@ -218,9 +218,6 @@
     <t>P4,P5?</t>
   </si>
   <si>
-    <t>I01, Review</t>
-  </si>
-  <si>
     <t>OS 1,2</t>
   </si>
   <si>
@@ -230,7 +227,10 @@
     <t>Lab 03</t>
   </si>
   <si>
-    <t>Lab ??</t>
+    <t>Lab MC</t>
+  </si>
+  <si>
+    <t>I01, I02, I03</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -720,14 +720,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -737,6 +734,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
@@ -772,7 +775,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
